--- a/biology/Médecine/École_royale_du_service_de_santé_militaire/École_royale_du_service_de_santé_militaire.xlsx
+++ b/biology/Médecine/École_royale_du_service_de_santé_militaire/École_royale_du_service_de_santé_militaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cole_royale_du_service_de_sant%C3%A9_militaire</t>
+          <t>École_royale_du_service_de_santé_militaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'École royale du service de santé militaire est une école militaire marocaine située à Rabat. Elle forme des médecins, des dentistes, des  pharmaciens et des vétérinaires[1] destinés à servir au sein des forces armées royales marocaines et de ses pays amis.L'ERSSM « L’école Royale de Service de Santé Militaire » offre également une formation militaire supérieure aux officiers de différentes spécialités, notamment les médecins, les pharmaciens, les chirurgiens-dentistes et les administrateurs de santé. Cela se fait à travers des concours relatifs aux grades mentionnés ci-dessus. À titre d'exemple, le cours d'application destiné aux jeunes officiers subalternes, correspondant au grade de lieutenant, est complété par les cours médico-administratif ou le cours des capitaines.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'École royale du service de santé militaire est une école militaire marocaine située à Rabat. Elle forme des médecins, des dentistes, des  pharmaciens et des vétérinaires destinés à servir au sein des forces armées royales marocaines et de ses pays amis.L'ERSSM « L’école Royale de Service de Santé Militaire » offre également une formation militaire supérieure aux officiers de différentes spécialités, notamment les médecins, les pharmaciens, les chirurgiens-dentistes et les administrateurs de santé. Cela se fait à travers des concours relatifs aux grades mentionnés ci-dessus. À titre d'exemple, le cours d'application destiné aux jeunes officiers subalternes, correspondant au grade de lieutenant, est complété par les cours médico-administratif ou le cours des capitaines.
 Formation Militaire Supérieure  :
 L'ERSSM « L’école Royale de Service de Santé Militaire » offre également une formation militaire supérieure aux officiers de différentes spécialités, notamment les médecins, les pharmaciens, les chirurgiens-dentistes et les administrateurs de santé , officiers du corps administratif du Service de santé militaire. 
 En effet, cela se fait à travers des concours relatifs aux grades mentionnés ci-dessous. À titre d'exemple, le cours d'application destiné aux jeunes officiers subalternes récemment gradués , correspondant au grade de lieutenant, est complété par les cours médico-administratif I &amp; II appelé également le cours des capitaines, et le COS “Cours des officiers supérieurs “.
-Grades de la Santé Militaire au Maroc :[2]
+Grades de la Santé Militaire au Maroc :
 Corps Médical : Épaulettes velours Couleur Cramoisie Grenât.  
 Médecin Lieutenant
 Médecin Capitaine
